--- a/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15720,7 +15721,6 @@
           <t>人保行业轮动混合C</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
           <t>83.27</t>
@@ -15752,7 +15752,6 @@
           <t>工银瑞信灵活配置混合B</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
           <t>73.66</t>
@@ -15784,7 +15783,6 @@
           <t>银华稳利灵活配置混合C</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
           <t>21.05</t>
@@ -15816,7 +15814,6 @@
           <t>鑫元鑫新收益灵活配置混合C</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
           <t>73.69</t>
@@ -15832,6 +15829,7692 @@
       </c>
       <c r="H178" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H202"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.5212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9966</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0216</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9381</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5647</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4924</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4427</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3312</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3241</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2460</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1406</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1116</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0279</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0230</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0226</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9704</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9329</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9184</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8982</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8441</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8400</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8391</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>32.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8377</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7611</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7460</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6330</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6219</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6053</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6031</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5816</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5544</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5420</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5405</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5201</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5098</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4655</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4399</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4288</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3929</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3904</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003754</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>004707</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>70.81</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>160522</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>003755</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>004719</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23520,4 +23521,7086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H186"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>129.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>138.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6135</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>142.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7305</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0506</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7937</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7389</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5051</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3571</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1802</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0318</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0026</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9527</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>36.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9391</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>60.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8741</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8591</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8496</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8404</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7905</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7734</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6957</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6849</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6700</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6609</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5875</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5773</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5751</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5505</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>49.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3688</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>58.12</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>58.12</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30603,4 +30604,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>185</v>
+      </c>
+      <c r="D2" t="n">
+        <v>84.23999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>89.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>177</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>226</v>
+      </c>
+      <c r="D5" t="n">
+        <v>114.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30612,7 +30613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30623,17 +30624,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -30643,14 +30664,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>185</v>
-      </c>
-      <c r="D2" t="n">
-        <v>84.23999999999999</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.1289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -30659,14 +30702,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>201</v>
-      </c>
-      <c r="D3" t="n">
-        <v>89.59</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>233.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.0022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -30675,14 +30740,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>177</v>
-      </c>
-      <c r="D4" t="n">
-        <v>72.08</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.4305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -30691,13 +30778,7597 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.6651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8974</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3866</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7987</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6387</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>95.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4877</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>138.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2976</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7392</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6747</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6244</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>44.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5071</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4749</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4703</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4599</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0562</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0345</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9731</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9718</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9544</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9484</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9330</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>40.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9187</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8708</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8702</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8594</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8394</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8004</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7929</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7905</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7445</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7331</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7311</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7043</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6983</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4868</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4851</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4565</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3992</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3666</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3114</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>74.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>71.55</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>71.55</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>185</v>
+      </c>
+      <c r="D3" t="n">
+        <v>84.23999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>89.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>177</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>226</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>114.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38267,7 +38268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38278,17 +38279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -38298,14 +38319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D2" t="n">
-        <v>98.84</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>209.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8946</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -38314,14 +38357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>185</v>
-      </c>
-      <c r="D3" t="n">
-        <v>84.23999999999999</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -38330,14 +38395,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>201</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89.59</v>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -38346,14 +38433,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>177</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.08</v>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -38362,13 +38471,4081 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5978</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1259</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0436</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9756</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8507</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8215</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7952</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7870</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7870</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7113</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7111</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6862</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6666</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5529</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5392</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5037</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4822</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3683</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>185</v>
+      </c>
+      <c r="D4" t="n">
+        <v>84.23999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>89.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>177</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>226</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>114.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -42428,7 +42429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42439,17 +42440,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -42459,14 +42480,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>108</v>
-      </c>
-      <c r="D2" t="n">
-        <v>46.77</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9661</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -42475,14 +42518,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>200</v>
-      </c>
-      <c r="D3" t="n">
-        <v>98.84</v>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4844</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -42491,14 +42556,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>185</v>
-      </c>
-      <c r="D4" t="n">
-        <v>84.23999999999999</v>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -42507,14 +42594,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>201</v>
-      </c>
-      <c r="D5" t="n">
-        <v>89.59</v>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -42523,14 +42632,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>177</v>
-      </c>
-      <c r="D6" t="n">
-        <v>72.08</v>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -42539,13 +42670,5425 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4558</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1776</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1736</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0220</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7551</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7395</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>33.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7139</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6732</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6687</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5574</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4805</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4720</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4572</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4460</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013748</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000812</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富国收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013747</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>108</v>
+      </c>
+      <c r="D3" t="n">
+        <v>46.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>98.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>185</v>
+      </c>
+      <c r="D5" t="n">
+        <v>84.23999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>89.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>177</v>
+      </c>
+      <c r="D7" t="n">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>226</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>114.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600570-恒生电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
-        <v>43.18</v>
+        <v>66.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D3" t="n">
-        <v>46.77</v>
+        <v>43.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>98.84</v>
+        <v>46.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>84.23999999999999</v>
+        <v>98.84</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D6" t="n">
-        <v>89.59</v>
+        <v>84.23999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D7" t="n">
-        <v>72.08</v>
+        <v>89.59</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>177</v>
+      </c>
+      <c r="D8" t="n">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>226</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>114.65</v>
       </c>
     </row>
@@ -600,6 +617,7082 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H186"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>210.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7787</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4739</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0522</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9642</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2661</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2344</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8976</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3242</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1971</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012502</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华安盛混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1220</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1045</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9590</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9335</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9058</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8352</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8331</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>33.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7645</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7217</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6798</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6730</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6242</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5961</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5869</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>匯豐晉信大盤股票型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5599</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5565</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5468</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5356</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4906</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4634</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4287</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银新动力股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3700</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>61.94</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013861</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013862</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>016254</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>560650</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>民生加银中证企业核心竞争力50ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>016258</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>012264</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>014453</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中银新动力股票C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>016255</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6125,7 +13218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10285,7 +17378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17939,7 +25032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25021,7 +32114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32707,7 +39800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -39461,7 +46554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
